--- a/其他类账单.xlsx
+++ b/其他类账单.xlsx
@@ -10,6 +10,7 @@
     <sheet name="酒水支付" sheetId="1" r:id="rId1"/>
     <sheet name="强贷" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="房租" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +77,54 @@
   </si>
   <si>
     <t>酒水支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7148-6587=561</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7868-7148=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>316-269=47*4=188</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -559,7 +608,7 @@
         <v>15.699999999999818</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E8" si="0">E4-D5</f>
+        <f>E4-D5</f>
         <v>1872.3300000000002</v>
       </c>
     </row>
@@ -574,11 +623,11 @@
         <v>2784.3</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D8" si="1">B6-C6</f>
+        <f t="shared" ref="D6:D7" si="0">B6-C6</f>
         <v>0.6999999999998181</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>E5-D6</f>
         <v>1871.6300000000003</v>
       </c>
     </row>
@@ -593,11 +642,11 @@
         <v>2784.3</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.3000000000001819</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E7" si="1">E6-D7</f>
         <v>1871.9300000000005</v>
       </c>
     </row>
@@ -612,12 +661,50 @@
         <v>2784.3</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f>B8-C8</f>
         <v>-0.3000000000001819</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1872.2300000000007</v>
+        <f>E7-D9</f>
+        <v>1871.2300000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20190907</v>
+      </c>
+      <c r="B9">
+        <v>2785</v>
+      </c>
+      <c r="C9">
+        <v>2784.3</v>
+      </c>
+      <c r="D9">
+        <f>B9-C9</f>
+        <v>0.6999999999998181</v>
+      </c>
+      <c r="E9">
+        <f>E8-D9</f>
+        <v>1870.5300000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20191007</v>
+      </c>
+      <c r="B10">
+        <v>2785</v>
+      </c>
+      <c r="C10">
+        <v>2784.3</v>
+      </c>
+      <c r="D10">
+        <f>B10-C10</f>
+        <v>0.6999999999998181</v>
+      </c>
+      <c r="E10">
+        <f>E9-D10</f>
+        <v>1869.8300000000011</v>
       </c>
     </row>
   </sheetData>
@@ -632,13 +719,227 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1">
+        <v>4069.45</v>
+      </c>
+      <c r="E1">
+        <v>3833.44</v>
+      </c>
+      <c r="F1">
+        <v>8.5199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>45000</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>364.5</v>
+      </c>
+      <c r="E2">
+        <v>7148.25</v>
+      </c>
+      <c r="F2">
+        <v>0.15890000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>21700</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>2141.17</v>
+      </c>
+      <c r="E3">
+        <v>4051.6</v>
+      </c>
+      <c r="F3">
+        <v>0.1867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>15580</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>1401.82</v>
+      </c>
+      <c r="E4">
+        <v>1142.8599999999999</v>
+      </c>
+      <c r="F4">
+        <v>7.3300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>29500</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>2806.67</v>
+      </c>
+      <c r="E5">
+        <v>4180.04</v>
+      </c>
+      <c r="F5">
+        <v>0.14169999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <f>B2+B3+B4+B5</f>
+        <v>111780</v>
+      </c>
+      <c r="D6">
+        <f>D2+D3+D4+D5</f>
+        <v>6714.16</v>
+      </c>
+      <c r="E6">
+        <f>E2+E3+E4+E5</f>
+        <v>16522.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f>D1+D3+D4+D5</f>
+        <v>10419.11</v>
+      </c>
+      <c r="E7">
+        <f>E1+E3+E4+E5</f>
+        <v>13207.939999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>15580</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>750.99</v>
+      </c>
+      <c r="E9">
+        <v>2443.71</v>
+      </c>
+      <c r="F9">
+        <v>7.8399999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>2848</v>
+      </c>
+      <c r="C2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20190520</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>1200</v>
+      </c>
+      <c r="E3">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20190820</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>900</v>
+      </c>
+      <c r="E4">
+        <v>1808</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/其他类账单.xlsx
+++ b/其他类账单.xlsx
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,7 +521,7 @@
     <col min="6" max="6" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -533,7 +533,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -553,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20190307</v>
       </c>
@@ -570,8 +570,12 @@
       <c r="E3">
         <v>2484</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <f>SUM($B$3:B3)</f>
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20190407</v>
       </c>
@@ -592,8 +596,12 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f>SUM($B$3:B4)</f>
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20190507</v>
       </c>
@@ -611,8 +619,12 @@
         <f>E4-D5</f>
         <v>1872.3300000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f>SUM($B$3:B5)</f>
+        <v>7964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20190607</v>
       </c>
@@ -630,8 +642,12 @@
         <f>E5-D6</f>
         <v>1871.6300000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f>SUM($B$3:B6)</f>
+        <v>10749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20190707</v>
       </c>
@@ -649,8 +665,12 @@
         <f t="shared" ref="E7" si="1">E6-D7</f>
         <v>1871.9300000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f>SUM($B$3:B7)</f>
+        <v>13533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20190807</v>
       </c>
@@ -668,8 +688,12 @@
         <f>E7-D9</f>
         <v>1871.2300000000007</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f>SUM($B$3:B8)</f>
+        <v>16317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20190907</v>
       </c>
@@ -687,8 +711,12 @@
         <f>E8-D9</f>
         <v>1870.5300000000009</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f>SUM($B$3:B9)</f>
+        <v>19102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20191007</v>
       </c>
@@ -705,6 +733,67 @@
       <c r="E10">
         <f>E9-D10</f>
         <v>1869.8300000000011</v>
+      </c>
+      <c r="I10">
+        <f>SUM($B$3:B10)</f>
+        <v>21887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20191107</v>
+      </c>
+      <c r="B11">
+        <v>2785</v>
+      </c>
+      <c r="C11">
+        <v>2784.3</v>
+      </c>
+      <c r="D11">
+        <f>B11-C11</f>
+        <v>0.6999999999998181</v>
+      </c>
+      <c r="E11">
+        <f>E10-D11</f>
+        <v>1869.1300000000012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20191207</v>
+      </c>
+      <c r="C12">
+        <v>2784.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20200107</v>
+      </c>
+      <c r="C13">
+        <v>2784.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20200207</v>
+      </c>
+      <c r="C14">
+        <v>2784.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20200307</v>
+      </c>
+      <c r="C15">
+        <v>1380.27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f>SUM(C3:C15)</f>
+        <v>33791.299999999996</v>
       </c>
     </row>
   </sheetData>

--- a/其他类账单.xlsx
+++ b/其他类账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="酒水支付" sheetId="1" r:id="rId1"/>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -750,28 +750,58 @@
         <v>2784.3</v>
       </c>
       <c r="D11">
-        <f>B11-C11</f>
+        <f t="shared" ref="D11:D13" si="2">B11-C11</f>
         <v>0.6999999999998181</v>
       </c>
       <c r="E11">
-        <f>E10-D11</f>
+        <f t="shared" ref="E11:E13" si="3">E10-D11</f>
         <v>1869.1300000000012</v>
+      </c>
+      <c r="I11">
+        <f>SUM($B$3:B11)</f>
+        <v>24672</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20191207</v>
       </c>
+      <c r="B12">
+        <v>2785</v>
+      </c>
       <c r="C12">
         <v>2784.3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.6999999999998181</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>1868.4300000000014</v>
+      </c>
+      <c r="I12">
+        <f>SUM($B$3:B12)</f>
+        <v>27457</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20200107</v>
       </c>
+      <c r="B13">
+        <v>2785</v>
+      </c>
       <c r="C13">
         <v>2784.3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.6999999999998181</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>1867.7300000000016</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -810,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>

--- a/其他类账单.xlsx
+++ b/其他类账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="酒水支付" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019.7.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +121,38 @@
   </si>
   <si>
     <t>316-269=47*4=188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8510-7868=642</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>343-316=27*4=108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样品酒A20B24C4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出A2B2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,50 +484,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>17</v>
+      </c>
+      <c r="E3">
+        <f>SUM($C$3:$C3)-SUM($D$3:D3)</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20200220</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>1060</v>
+      </c>
+      <c r="E4">
+        <f>SUM($C$3:$C4)-SUM($D$3:D4)</f>
+        <v>-1077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20200228</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>248</v>
+      </c>
+      <c r="E5">
+        <f>SUM($C$3:$C5)-SUM($D$3:D5)</f>
+        <v>-829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f>SUM($C$3:$C6)-SUM($D$3:D6)</f>
+        <v>-829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f>SUM($C$3:$C7)-SUM($D$3:D7)</f>
+        <v>-829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f>SUM($C$3:$C8)-SUM($D$3:D8)</f>
+        <v>-829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f>SUM($C$3:$C9)-SUM($D$3:D9)</f>
+        <v>-829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <f>SUM($C$3:$C10)-SUM($D$3:D10)</f>
+        <v>-829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f>SUM($C$3:$C11)-SUM($D$3:D11)</f>
+        <v>-829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f>SUM($C$3:$C12)-SUM($D$3:D12)</f>
+        <v>-829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f>SUM($C$3:$C13)-SUM($D$3:D13)</f>
+        <v>-829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <f>SUM($C$3:$C14)-SUM($D$3:D14)</f>
+        <v>-829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <f>SUM($C$3:$C15)-SUM($D$3:D15)</f>
+        <v>-829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <f>SUM($C$3:$C16)-SUM($D$3:D16)</f>
+        <v>-829</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <f>SUM($C$3:$C17)-SUM($D$3:D17)</f>
+        <v>-829</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -511,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,7 +665,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -535,22 +677,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -594,7 +736,7 @@
         <v>1888.03</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <f>SUM($B$3:B4)</f>
@@ -750,11 +892,11 @@
         <v>2784.3</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D13" si="2">B11-C11</f>
+        <f t="shared" ref="D11:D15" si="2">B11-C11</f>
         <v>0.6999999999998181</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:E13" si="3">E10-D11</f>
+        <f t="shared" ref="E11:E15" si="3">E10-D11</f>
         <v>1869.1300000000012</v>
       </c>
       <c r="I11">
@@ -803,21 +945,55 @@
         <f t="shared" si="3"/>
         <v>1867.7300000000016</v>
       </c>
+      <c r="I13">
+        <f>SUM($B$3:B13)</f>
+        <v>30242</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20200207</v>
       </c>
+      <c r="B14">
+        <v>2784</v>
+      </c>
       <c r="C14">
         <v>2784.3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>-0.3000000000001819</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>1868.0300000000018</v>
+      </c>
+      <c r="I14">
+        <f>SUM($B$3:B14)</f>
+        <v>33026</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20200307</v>
       </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
       <c r="C15">
         <v>1380.27</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>-380.27</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>2248.300000000002</v>
+      </c>
+      <c r="I15">
+        <f>SUM($B$3:B15)</f>
+        <v>34026</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
@@ -840,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -859,7 +1035,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>45000</v>
@@ -879,7 +1055,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>21700</v>
@@ -916,7 +1092,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>29500</v>
@@ -960,7 +1136,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>15580</v>
@@ -987,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1000,24 +1176,27 @@
     <col min="3" max="3" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>2848</v>
       </c>
@@ -1025,35 +1204,55 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20190520</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>1200</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1761</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20190820</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4">
         <v>900</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20200120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>1500</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="F5">
+        <v>2750</v>
       </c>
     </row>
   </sheetData>
